--- a/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.76</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>62.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>008085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>海富通先进制造股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008084</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通先进制造股票C</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008085</t>
+          <t>005119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通先进制造股票A</t>
+          <t>银华智荟内在价值灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005119</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华智荟内在价值灵活配置混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>008084</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>海富通先进制造股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.60</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
@@ -1207,12 +1207,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,547 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6590</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4103</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008085</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3292</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3140</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005119</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华智荟内在价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2692</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2390</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1693</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004044</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008084</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通先进制造股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0674</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004211</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金鹰周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1054,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0676</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1148,36 +682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1191,80 +725,546 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.66</v>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300598-诚迈科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.66</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -588,36 +605,340 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>005825</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>申万菱信智能驱动股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.1692</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015920</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -682,36 +1003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0676</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -720,6 +1041,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
